--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.2 Plantilla_Eficiencia_energetica_industrial_caldera (V2).xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.2 Plantilla_Eficiencia_energetica_industrial_caldera (V2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\Plantillas industrial en versión actual sistema MRV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE12D3D5-4595-490B-A7BA-B1D76C687CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59BA036-AEA1-4378-B831-E6CFD9603B3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{4B859084-2846-437A-9A39-CE5A20A8C627}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4B859084-2846-437A-9A39-CE5A20A8C627}"/>
   </bookViews>
   <sheets>
     <sheet name="Energetica Industrial Caldera" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Año</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Año de operación del equipo. Seleccione de la lista desplegable.</t>
-  </si>
-  <si>
-    <t>Combustible</t>
   </si>
   <si>
     <t>Capacidad</t>
@@ -738,7 +735,7 @@
   <dimension ref="A1:H312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,22 +758,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -797,18 +794,18 @@
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -834,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="20">
         <v>750000</v>
@@ -5698,7 +5695,7 @@
       </c>
       <c r="E260" s="15"/>
       <c r="F260" s="18" t="e">
-        <f t="shared" ref="F260:F323" si="14">VLOOKUP(G260,Tabla_BAU,2,)</f>
+        <f t="shared" ref="F260:F311" si="14">VLOOKUP(G260,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="G260" s="18"/>
@@ -6678,7 +6675,7 @@
       <c r="B312" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EGc+vM+joIBUeNKPUXW1uxNagd5M5CQFO/LMaPTKi5PS1sfytbdmNRb12eas5F+Czl5I9PUnfTx6ovj2QohvNw==" saltValue="HmVHzpRMoLaHp4t/12XLvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H2tLudonwMWVrSVonTPcbv09ghIWe4uv/LHF9JxDinc5SFqC7fbz2jR1x+7Ee50eY6cpYX7qAkyWfnEjnOfiWQ==" saltValue="UaFX8NfXNBuYHwR64jlfWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
@@ -6759,7 +6756,7 @@
         <v>3</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>3</v>
@@ -6828,7 +6825,7 @@
         <v>2015</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -6851,7 +6848,7 @@
         <v>2016</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
